--- a/NddcPayroll.Web/wwwroot/GradeLevelUpgrade.xlsx
+++ b/NddcPayroll.Web/wwwroot/GradeLevelUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.tolofari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAE0A03-B402-496F-ABA9-A6A68E6EAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADC68AF-BCBC-4825-A220-1E890EE83AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E95945-BFDF-4A59-8C19-02D6E56B146D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>2007B</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>GradeLevel</t>
-  </si>
-  <si>
-    <t>GL179</t>
   </si>
   <si>
     <t>2056</t>
@@ -109,11 +106,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{4E4CC915-C1A0-428B-888E-8AB66821FE0D}"/>
@@ -432,7 +428,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -452,40 +448,40 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>227097.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>3177</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>150000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>450000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>432000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>234543</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
